--- a/pabi_account_report/xlsx_template/xlsx_report_payable_detail.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_payable_detail.xlsx
@@ -263,7 +263,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,10 +273,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,25 +413,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="6" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="6" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="6" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="5" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="24.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="22.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="6" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="5" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="6" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="5" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="32" min="30" style="1" width="11.52"/>
@@ -446,7 +442,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7"/>
+      <c r="A1" s="6"/>
       <c r="F1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -455,19 +451,19 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AH1" s="9"/>
+      <c r="AH1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AH2" s="9"/>
+      <c r="AH2" s="8"/>
       <c r="AME2" s="0"/>
       <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
@@ -476,10 +472,10 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
       <c r="AME3" s="0"/>
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
@@ -488,10 +484,10 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="AME4" s="0"/>
       <c r="AMF4" s="0"/>
       <c r="AMG4" s="0"/>
@@ -500,15 +496,15 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="AG5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="AG5" s="6"/>
       <c r="AME5" s="0"/>
       <c r="AMF5" s="0"/>
       <c r="AMG5" s="0"/>
@@ -517,15 +513,15 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="7"/>
-      <c r="AG6" s="8" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="6"/>
+      <c r="AG6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AH6" s="9"/>
+      <c r="AH6" s="8"/>
       <c r="AME6" s="0"/>
       <c r="AMF6" s="0"/>
       <c r="AMG6" s="0"/>
@@ -534,15 +530,15 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="AH7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="AH7" s="8"/>
       <c r="AME7" s="0"/>
       <c r="AMF7" s="0"/>
       <c r="AMG7" s="0"/>
@@ -551,15 +547,15 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="AH8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="AH8" s="8"/>
       <c r="AME8" s="0"/>
       <c r="AMF8" s="0"/>
       <c r="AMG8" s="0"/>
@@ -568,12 +564,12 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7"/>
-      <c r="AH9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="6"/>
+      <c r="AH9" s="8"/>
       <c r="AME9" s="0"/>
       <c r="AMF9" s="0"/>
       <c r="AMG9" s="0"/>
@@ -582,11 +578,11 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
       <c r="AME10" s="0"/>
       <c r="AMF10" s="0"/>
       <c r="AMG10" s="0"/>
@@ -595,10 +591,10 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="AME11" s="0"/>
       <c r="AMF11" s="0"/>
       <c r="AMG11" s="0"/>
@@ -607,10 +603,10 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="10"/>
       <c r="AME12" s="0"/>
       <c r="AMF12" s="0"/>
       <c r="AMG12" s="0"/>
@@ -619,7 +615,7 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="11"/>
@@ -638,92 +634,92 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+    <row r="15" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="S15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="U15" s="13" t="s">
+      <c r="U15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="V15" s="13" t="s">
+      <c r="V15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="13" t="s">
+      <c r="W15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="X15" s="13" t="s">
+      <c r="X15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y15" s="13" t="s">
+      <c r="Y15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="13" t="s">
+      <c r="Z15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AA15" s="13" t="s">
+      <c r="AA15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AB15" s="13" t="s">
+      <c r="AB15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AC15" s="13" t="s">
+      <c r="AC15" s="12" t="s">
         <v>44</v>
       </c>
       <c r="AME15" s="0"/>
